--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD438C5-1EBA-43EA-B98E-11617B482E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA500B6-55E4-435A-A5C4-09B13E1500FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>ROL</t>
   </si>
@@ -163,13 +163,16 @@
     <t>IdUsaurio</t>
   </si>
   <si>
-    <t>Restaurante</t>
-  </si>
-  <si>
     <t>IdRestaurante</t>
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Proovedor</t>
+  </si>
+  <si>
+    <t>IdProovedor</t>
   </si>
 </sst>
 </file>
@@ -805,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
   <dimension ref="B2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="117" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="117" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>32</v>
@@ -861,7 +864,7 @@
         <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>39</v>
@@ -933,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="11"/>
     </row>
@@ -965,13 +968,13 @@
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA500B6-55E4-435A-A5C4-09B13E1500FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F1F90-2FAE-4ED2-B9B7-7AE08533AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>ROL</t>
   </si>
@@ -173,22 +173,32 @@
   </si>
   <si>
     <t>IdProovedor</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>IdMenu</t>
+  </si>
+  <si>
+    <t>FechaInicio</t>
+  </si>
+  <si>
+    <t>FechaFin</t>
+  </si>
+  <si>
+    <t>IdMenuDetalle</t>
+  </si>
+  <si>
+    <t>MenuDetalle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,11 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,206 +833,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
-  <dimension ref="B2:Q13"/>
+  <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="117" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H13" s="3" t="s">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396F1F90-2FAE-4ED2-B9B7-7AE08533AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E72561-7B80-48CF-BCF5-72B80EC7C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>ROL</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>MenuDetalle</t>
+  </si>
+  <si>
+    <t>IdPoveedor</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +939,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>46</v>

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E72561-7B80-48CF-BCF5-72B80EC7C461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1608D0C-92BA-4088-A318-20F25961422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>ROL</t>
   </si>
@@ -839,7 +839,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +848,7 @@
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -1041,8 +1041,8 @@
       <c r="F12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>39</v>
+      <c r="H12" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,16 @@
       <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>40</v>
+      <c r="H13" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1608D0C-92BA-4088-A318-20F25961422D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BC9E6-525D-412A-B2D5-F54A954620EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>ROL</t>
   </si>
@@ -163,12 +163,6 @@
     <t>IdUsaurio</t>
   </si>
   <si>
-    <t>IdRestaurante</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Proovedor</t>
   </si>
   <si>
@@ -194,6 +188,18 @@
   </si>
   <si>
     <t>IdPoveedor</t>
+  </si>
+  <si>
+    <t>Logotipo</t>
+  </si>
+  <si>
+    <t>IDProveedor</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>IdCuenta</t>
   </si>
 </sst>
 </file>
@@ -217,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,6 +358,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,10 +851,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
-  <dimension ref="B2:O15"/>
+  <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>32</v>
@@ -871,7 +886,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -882,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>39</v>
@@ -891,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -930,19 +945,19 @@
         <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O6" s="10"/>
     </row>
@@ -951,10 +966,10 @@
         <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>35</v>
@@ -963,94 +978,85 @@
         <v>35</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>9</v>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
+      <c r="E13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>39</v>
@@ -1060,12 +1066,33 @@
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BC9E6-525D-412A-B2D5-F54A954620EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E5C69-904C-4F7F-9351-43A95FAF8169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -67,12 +57,6 @@
     <t>Contrasena</t>
   </si>
   <si>
-    <t>ID_Empresa</t>
-  </si>
-  <si>
-    <t>ID_Rol</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -82,43 +66,13 @@
     <t>Imagen</t>
   </si>
   <si>
-    <t>ID_Categoria</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>ID_Estado</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
     <t>RUC</t>
   </si>
   <si>
     <t>RazonSocial</t>
   </si>
   <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>PEDIDOS</t>
-  </si>
-  <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>PRODUCTO</t>
-  </si>
-  <si>
-    <t>ID_PRODUCTO</t>
-  </si>
-  <si>
-    <t>ID_USUARIO</t>
   </si>
   <si>
     <t>Rol</t>
@@ -676,424 +630,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A3706F-C7E4-49A6-A14A-39C58C911010}">
-  <dimension ref="B2:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
+  <dimension ref="B2:O20"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
-  <dimension ref="B2:O18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>42</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
-        <v>40</v>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E5C69-904C-4F7F-9351-43A95FAF8169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4061B3B-8DDD-4286-9B2E-9AC23BB94127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,6 +315,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
-  <dimension ref="B2:O20"/>
+  <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="49" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -656,17 +659,14 @@
       <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>34</v>
+      <c r="F2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -677,16 +677,13 @@
         <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -697,53 +694,48 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>19</v>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>25</v>
@@ -752,129 +744,137 @@
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>28</v>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>25</v>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="13" t="s">
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4061B3B-8DDD-4286-9B2E-9AC23BB94127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFDBD7C-5B02-48BD-8CC6-F8C0FAFB7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Nombre</t>
   </si>
@@ -154,13 +155,19 @@
   </si>
   <si>
     <t>IdCuenta</t>
+  </si>
+  <si>
+    <t>FIGMA</t>
+  </si>
+  <si>
+    <t>Desktop - Prototipo.v1.0 (figma.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +179,21 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,10 +297,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,11 +340,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
   <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="49" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="126" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -881,4 +906,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591A6BC-8495-4679-A1ED-E4D22EA4CFC9}">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.figma.com/proto/lHh3AMDJYHUe0QjQUhfSjE/Prototipo.v1.0?page-id=1%3A2&amp;type=design&amp;node-id=94-1447&amp;viewport=180%2C377%2C0.05&amp;t=nYikA3FjGqwr7Crv-1&amp;scaling=scale-down&amp;starting-point-node-id=44%3A1046" xr:uid="{3FE86E40-01A5-467D-B059-E9246532DF69}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pedidos_Database.xlsx
+++ b/Pedidos_Database.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIAMATICA\workspace\Pedidos_Proyecto\Pedidos_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFDBD7C-5B02-48BD-8CC6-F8C0FAFB7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23059C5D-06AE-481C-B003-131AEC366340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{BAB74782-32CA-4189-8E22-F797CB25E092}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -155,19 +154,13 @@
   </si>
   <si>
     <t>IdCuenta</t>
-  </si>
-  <si>
-    <t>FIGMA</t>
-  </si>
-  <si>
-    <t>Desktop - Prototipo.v1.0 (figma.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,21 +172,6 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -297,11 +275,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,10 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235175BD-4199-41CF-840E-6036C481D7B9}">
   <dimension ref="B2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="126" zoomScaleNormal="49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="126" zoomScaleNormal="49" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -906,30 +881,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591A6BC-8495-4679-A1ED-E4D22EA4CFC9}">
-  <dimension ref="B2:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.figma.com/proto/lHh3AMDJYHUe0QjQUhfSjE/Prototipo.v1.0?page-id=1%3A2&amp;type=design&amp;node-id=94-1447&amp;viewport=180%2C377%2C0.05&amp;t=nYikA3FjGqwr7Crv-1&amp;scaling=scale-down&amp;starting-point-node-id=44%3A1046" xr:uid="{3FE86E40-01A5-467D-B059-E9246532DF69}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>